--- a/doc/添加数据库/example.xlsx
+++ b/doc/添加数据库/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\rmg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25832\Desktop\rmj\code\RestaurantManager\doc\添加数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DDDABA-DA4A-4162-BED1-636A74727911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E617B1-D49C-4041-9B68-F455CBDE73C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
+    <workbookView xWindow="2600" yWindow="0" windowWidth="12710" windowHeight="9960" activeTab="1" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
   </bookViews>
   <sheets>
     <sheet name="bill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="customer" sheetId="2" r:id="rId6"/>
     <sheet name="dish" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isPrivate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空闲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +310,10 @@
   </si>
   <si>
     <t>orderStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,18 +690,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="24.58203125" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" customWidth="1"/>
+    <col min="7" max="7" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -743,7 +743,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -757,7 +757,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -799,7 +799,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -813,7 +813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -827,7 +827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -841,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -880,13 +880,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBC9B53-CBCF-4F71-A790-DCAAE7595955}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -897,10 +897,10 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -908,13 +908,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -942,40 +942,40 @@
       <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>111111</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>18566664444</v>
@@ -984,18 +984,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>111111</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>18566664445</v>
@@ -1004,18 +1004,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>111111</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>18566664446</v>
@@ -1024,18 +1024,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>111111</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>18566664447</v>
@@ -1044,18 +1044,18 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>111111</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>18566664448</v>
@@ -1064,7 +1064,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>111111</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1085,13 +1085,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED192D-6C48-4742-BC7B-6EA4C7F5CFB0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>49</v>
       </c>
@@ -1124,9 +1124,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>41</v>
@@ -1158,7 +1158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1204,9 +1204,9 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000000</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10000001</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10000002</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000003</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000004</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10000005</v>
       </c>
@@ -1318,9 +1318,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1331,13 +1331,13 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>

--- a/doc/添加数据库/example.xlsx
+++ b/doc/添加数据库/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\rmg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myWork\大三上\Java小学期\homework\hbb\RestaurantManager\doc\添加数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DDDABA-DA4A-4162-BED1-636A74727911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB12BCDA-6CEB-4F69-89B4-FAA3083796D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="3" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1" xr2:uid="{24225326-9832-438A-8F05-9C3B35FC3698}"/>
   </bookViews>
   <sheets>
     <sheet name="bill" sheetId="1" r:id="rId1"/>
@@ -245,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isPrivate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>空闲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +310,10 @@
   </si>
   <si>
     <t>orderStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +322,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBC9B53-CBCF-4F71-A790-DCAAE7595955}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -931,6 +931,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -946,22 +947,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>111111</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>18566664444</v>
@@ -989,13 +990,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>111111</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3">
         <v>18566664445</v>
@@ -1009,13 +1010,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>111111</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4">
         <v>18566664446</v>
@@ -1029,13 +1030,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>111111</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>18566664447</v>
@@ -1049,13 +1050,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>111111</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6">
         <v>18566664448</v>
@@ -1072,7 +1073,7 @@
         <v>111111</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED192D-6C48-4742-BC7B-6EA4C7F5CFB0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H1" t="s">
         <v>41</v>
@@ -1331,7 +1332,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
